--- a/doc/Manual/Batchmode/SettlementFile.xlsx
+++ b/doc/Manual/Batchmode/SettlementFile.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RS_genetic\doc\Manual\Batchmode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RangeShifter2\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802A81F6-54FA-4188-96FE-422548CC4BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="420" windowWidth="20730" windowHeight="9495" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description Kernels" sheetId="1" r:id="rId1"/>
@@ -267,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,6 +594,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -628,6 +646,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -803,10 +838,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1153,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1295,8 +1330,8 @@
       <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" s="19">
-        <v>-9</v>
+      <c r="L2" s="2">
+        <v>1</v>
       </c>
       <c r="M2" s="19">
         <v>-9</v>
@@ -1482,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1508,8 +1543,8 @@
       <c r="K5" s="2">
         <v>25</v>
       </c>
-      <c r="L5" s="19">
-        <v>-9</v>
+      <c r="L5" s="2">
+        <v>0.8</v>
       </c>
       <c r="M5" s="19">
         <v>-9</v>
@@ -1553,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1577,10 +1612,10 @@
         <v>-9</v>
       </c>
       <c r="K6" s="2">
-        <v>25</v>
-      </c>
-      <c r="L6" s="19">
-        <v>-9</v>
+        <v>35</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.75</v>
       </c>
       <c r="M6" s="19">
         <v>-9</v>
@@ -1624,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1648,10 +1683,10 @@
         <v>-9</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="19">
-        <v>-9</v>
+        <v>50</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
       </c>
       <c r="M7" s="19">
         <v>-9</v>
@@ -1695,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1719,10 +1754,10 @@
         <v>-9</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="19">
-        <v>-9</v>
+        <v>50</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
       </c>
       <c r="M8" s="19">
         <v>-9</v>
@@ -1766,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -1790,10 +1825,10 @@
         <v>-9</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="19">
-        <v>-9</v>
+        <v>50</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
       </c>
       <c r="M9" s="19">
         <v>-9</v>
@@ -1837,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
@@ -1861,10 +1896,10 @@
         <v>-9</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="19">
-        <v>-9</v>
+        <v>50</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
       </c>
       <c r="M10" s="19">
         <v>-9</v>
@@ -1908,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1979,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -2050,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -2121,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -2192,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -2263,7 +2298,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
@@ -2334,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -2405,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -2440,20 +2475,20 @@
       <c r="N18" s="19">
         <v>-9</v>
       </c>
-      <c r="O18" s="19">
-        <v>-9</v>
-      </c>
-      <c r="P18" s="19">
-        <v>-9</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>-9</v>
-      </c>
-      <c r="R18" s="19">
-        <v>-9</v>
-      </c>
-      <c r="S18" s="19">
-        <v>-9</v>
+      <c r="O18" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>-8</v>
+      </c>
+      <c r="R18" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1</v>
       </c>
       <c r="T18" s="19">
         <v>-9</v>
@@ -2476,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -2511,20 +2546,20 @@
       <c r="N19" s="19">
         <v>-9</v>
       </c>
-      <c r="O19" s="19">
-        <v>-9</v>
-      </c>
-      <c r="P19" s="19">
-        <v>-9</v>
-      </c>
-      <c r="Q19" s="19">
-        <v>-9</v>
-      </c>
-      <c r="R19" s="19">
-        <v>-9</v>
-      </c>
-      <c r="S19" s="19">
-        <v>-9</v>
+      <c r="O19" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>-8</v>
+      </c>
+      <c r="R19" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
       </c>
       <c r="T19" s="19">
         <v>-9</v>
@@ -2547,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2582,20 +2617,20 @@
       <c r="N20" s="19">
         <v>-9</v>
       </c>
-      <c r="O20" s="19">
-        <v>-9</v>
-      </c>
-      <c r="P20" s="19">
-        <v>-9</v>
-      </c>
-      <c r="Q20" s="19">
-        <v>-9</v>
-      </c>
-      <c r="R20" s="19">
-        <v>-9</v>
-      </c>
-      <c r="S20" s="19">
-        <v>-9</v>
+      <c r="O20" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>-8</v>
+      </c>
+      <c r="R20" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1</v>
       </c>
       <c r="T20" s="19">
         <v>-9</v>
@@ -2618,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -2653,20 +2688,20 @@
       <c r="N21" s="19">
         <v>-9</v>
       </c>
-      <c r="O21" s="19">
-        <v>-9</v>
-      </c>
-      <c r="P21" s="19">
-        <v>-9</v>
-      </c>
-      <c r="Q21" s="19">
-        <v>-9</v>
-      </c>
-      <c r="R21" s="19">
-        <v>-9</v>
-      </c>
-      <c r="S21" s="19">
-        <v>-9</v>
+      <c r="O21" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>-8</v>
+      </c>
+      <c r="R21" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1</v>
       </c>
       <c r="T21" s="19">
         <v>-9</v>
@@ -2689,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -2724,20 +2759,20 @@
       <c r="N22" s="19">
         <v>-9</v>
       </c>
-      <c r="O22" s="19">
-        <v>-9</v>
-      </c>
-      <c r="P22" s="19">
-        <v>-9</v>
-      </c>
-      <c r="Q22" s="19">
-        <v>-9</v>
-      </c>
-      <c r="R22" s="19">
-        <v>-9</v>
-      </c>
-      <c r="S22" s="19">
-        <v>-9</v>
+      <c r="O22" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>-8</v>
+      </c>
+      <c r="R22" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1</v>
       </c>
       <c r="T22" s="19">
         <v>-9</v>
@@ -2758,7 +2793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2831,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2950,7 +2985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3092,7 +3127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3418,10 +3453,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3906,7 +3941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4048,8 +4083,8 @@
       <c r="K2" s="19">
         <v>-9</v>
       </c>
-      <c r="L2" s="19">
-        <v>-9</v>
+      <c r="L2" s="2">
+        <v>1</v>
       </c>
       <c r="M2" s="19">
         <v>-9</v>
@@ -4233,7 +4268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4375,8 +4410,8 @@
       <c r="K2" s="19">
         <v>-9</v>
       </c>
-      <c r="L2" s="19">
-        <v>-9</v>
+      <c r="L2" s="2">
+        <v>1</v>
       </c>
       <c r="M2" s="19">
         <v>-9</v>
@@ -4588,8 +4623,8 @@
       <c r="K5" s="2">
         <v>25</v>
       </c>
-      <c r="L5" s="19">
-        <v>-9</v>
+      <c r="L5" s="2">
+        <v>1</v>
       </c>
       <c r="M5" s="19">
         <v>-9</v>
@@ -4659,8 +4694,8 @@
       <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="L6" s="19">
-        <v>-9</v>
+      <c r="L6" s="2">
+        <v>1</v>
       </c>
       <c r="M6" s="19">
         <v>-9</v>
@@ -4952,23 +4987,23 @@
       <c r="N10" s="19">
         <v>-9</v>
       </c>
-      <c r="O10" s="19">
-        <v>-9</v>
-      </c>
-      <c r="P10" s="19">
-        <v>-9</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>-9</v>
-      </c>
-      <c r="R10" s="19">
-        <v>-9</v>
-      </c>
-      <c r="S10" s="19">
-        <v>-9</v>
-      </c>
-      <c r="T10" s="19">
-        <v>-9</v>
+      <c r="O10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>-8</v>
+      </c>
+      <c r="R10" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.1</v>
       </c>
       <c r="U10" s="19">
         <v>-9</v>
@@ -4986,7 +5021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5128,8 +5163,8 @@
       <c r="K2" s="2">
         <v>25</v>
       </c>
-      <c r="L2" s="19">
-        <v>-9</v>
+      <c r="L2" s="2">
+        <v>1</v>
       </c>
       <c r="M2" s="19">
         <v>-9</v>
@@ -5341,8 +5376,8 @@
       <c r="K5" s="2">
         <v>25</v>
       </c>
-      <c r="L5" s="19">
-        <v>-9</v>
+      <c r="L5" s="2">
+        <v>1</v>
       </c>
       <c r="M5" s="19">
         <v>-9</v>
@@ -5410,10 +5445,10 @@
         <v>-9</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="19">
-        <v>-9</v>
+        <v>40</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
       </c>
       <c r="M6" s="19">
         <v>-9</v>
@@ -5483,8 +5518,8 @@
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="19">
-        <v>-9</v>
+      <c r="L7" s="2">
+        <v>1</v>
       </c>
       <c r="M7" s="19">
         <v>-9</v>
@@ -5847,20 +5882,20 @@
       <c r="N12" s="19">
         <v>-9</v>
       </c>
-      <c r="O12" s="19">
-        <v>-9</v>
-      </c>
-      <c r="P12" s="19">
-        <v>-9</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>-9</v>
-      </c>
-      <c r="R12" s="19">
-        <v>-9</v>
-      </c>
-      <c r="S12" s="19">
-        <v>-9</v>
+      <c r="O12" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>-8</v>
+      </c>
+      <c r="R12" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
       </c>
       <c r="T12" s="19">
         <v>-9</v>
@@ -5918,20 +5953,20 @@
       <c r="N13" s="19">
         <v>-9</v>
       </c>
-      <c r="O13" s="19">
-        <v>-9</v>
-      </c>
-      <c r="P13" s="19">
-        <v>-9</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>-9</v>
-      </c>
-      <c r="R13" s="19">
-        <v>-9</v>
-      </c>
-      <c r="S13" s="19">
-        <v>-9</v>
+      <c r="O13" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>-8</v>
+      </c>
+      <c r="R13" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
       </c>
       <c r="T13" s="19">
         <v>-9</v>
